--- a/biology/Médecine/Hypomélanose_de_Ito/Hypomélanose_de_Ito.xlsx
+++ b/biology/Médecine/Hypomélanose_de_Ito/Hypomélanose_de_Ito.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypom%C3%A9lanose_de_Ito</t>
+          <t>Hypomélanose_de_Ito</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hypomélanose de Ito (HI), anciennement dénommée incontinentia pigmenti achromians[1] est une maladie neuro-cutanée caractérisée par des lésions cutanées hypopigmentées le long des lignes de Blaschko qui se développent dans les deux premières années de vie, associées à des symptômes neurologiques, squelettiques et ophtalmologiques[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hypomélanose de Ito (HI), anciennement dénommée incontinentia pigmenti achromians est une maladie neuro-cutanée caractérisée par des lésions cutanées hypopigmentées le long des lignes de Blaschko qui se développent dans les deux premières années de vie, associées à des symptômes neurologiques, squelettiques et ophtalmologiques.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypom%C3%A9lanose_de_Ito</t>
+          <t>Hypomélanose_de_Ito</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa prévalence (nombre de malades) est inconnue et son incidence (nombre de nouveaux cas) est estimée entre 1/10 000 et 1/8 500[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa prévalence (nombre de malades) est inconnue et son incidence (nombre de nouveaux cas) est estimée entre 1/10 000 et 1/8 500.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypom%C3%A9lanose_de_Ito</t>
+          <t>Hypomélanose_de_Ito</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est le plus souvent d'apparition sporadique, mais des cas de transmission autosomique dominante, récessive ou liée à l'X sont possibles[2]. Il existe parfois des anomalies chromosomiques[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est le plus souvent d'apparition sporadique, mais des cas de transmission autosomique dominante, récessive ou liée à l'X sont possibles. Il existe parfois des anomalies chromosomiques. 
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypom%C3%A9lanose_de_Ito</t>
+          <t>Hypomélanose_de_Ito</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +589,12 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'atteinte cutanée peut être associée à d'autres atteintes, le plus souvent cérébrales au niveau de la substance blanche[4].
-Les diagnostics différentiels, associant atteintes cutanées et neurologiques[5], sont principalement l' incontinentia pigmenti, la sclérose tubéreuse et le syndrome de Pallister-Killian. Et en cas de macules hyperpigmentées associées, il faut inclure les neurofibromatoses de types 1 et 2[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'atteinte cutanée peut être associée à d'autres atteintes, le plus souvent cérébrales au niveau de la substance blanche.
+Les diagnostics différentiels, associant atteintes cutanées et neurologiques, sont principalement l' incontinentia pigmenti, la sclérose tubéreuse et le syndrome de Pallister-Killian. Et en cas de macules hyperpigmentées associées, il faut inclure les neurofibromatoses de types 1 et 2.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypom%C3%A9lanose_de_Ito</t>
+          <t>Hypomélanose_de_Ito</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prise en charge est pluri-disciplinaire et si les lésions cutanées ne nécessitent pas de traitement spécifique, une prise en charge par un ophtalmologue, un neurologue ou un orthopédiste peuvent être nécessaires[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prise en charge est pluri-disciplinaire et si les lésions cutanées ne nécessitent pas de traitement spécifique, une prise en charge par un ophtalmologue, un neurologue ou un orthopédiste peuvent être nécessaires. 
 </t>
         </is>
       </c>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hypom%C3%A9lanose_de_Ito</t>
+          <t>Hypomélanose_de_Ito</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pronostic est bon concernant les lésion cutanées et dépend de la gravité des anomalies viscérales associées[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pronostic est bon concernant les lésion cutanées et dépend de la gravité des anomalies viscérales associées.
 </t>
         </is>
       </c>
